--- a/src/test/resources/testdata/APIautoTestData.xlsx
+++ b/src/test/resources/testdata/APIautoTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{949B1535-18D5-4FC5-BDE8-EACDDA7F8544}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{30DFFB92-FC90-4F67-9459-A2FAC2A19D42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15432" windowHeight="2388" xr2:uid="{0E33D818-4148-4C54-AB1E-AED65857CB01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15432" windowHeight="3228" xr2:uid="{0E33D818-4148-4C54-AB1E-AED65857CB01}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseRouting" sheetId="2" r:id="rId1"/>
     <sheet name="CaseIDService" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:D10"/>
+  <oleSize ref="A1:D6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>TC_NO</t>
   </si>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B396166-BCAA-458F-B773-5291BC6D9282}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -410,7 +410,7 @@
     <col min="4" max="4" width="63.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,14 +442,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AEF11C-0512-4003-9FF0-61DFF13A18AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5234375" customWidth="1"/>
+    <col min="3" max="3" width="17.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>